--- a/Person/郑玉莹/用户故事.xlsx
+++ b/Person/郑玉莹/用户故事.xlsx
@@ -396,7 +396,7 @@
     <t>进度</t>
   </si>
   <si>
-    <t>初始估计（h）</t>
+    <t>初始估计（d）</t>
   </si>
   <si>
     <t>优先级</t>
@@ -408,7 +408,7 @@
     <t>商业价值</t>
   </si>
   <si>
-    <t>理想时间（h）</t>
+    <t>理想时间（d）</t>
   </si>
   <si>
     <t>调整因子</t>
@@ -498,11 +498,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00;\-0.00;;@\ "/>
     <numFmt numFmtId="177" formatCode="0;\-0;;@\ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -533,17 +533,27 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -555,25 +565,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -594,10 +609,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -610,7 +626,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -624,32 +655,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -663,15 +671,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -715,187 +715,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1107,56 +1107,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1178,6 +1128,65 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1191,15 +1200,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1208,10 +1208,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1220,133 +1220,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1912,8 +1912,8 @@
   <sheetPr/>
   <dimension ref="A1:Q11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -2004,7 +2004,7 @@
         <v>21</v>
       </c>
       <c r="I2" s="17">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J2" s="18">
         <v>98</v>
@@ -2012,7 +2012,7 @@
       <c r="K2" s="19"/>
       <c r="L2" s="20"/>
       <c r="M2" s="21">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N2" s="22"/>
       <c r="O2" s="21"/>
@@ -2045,7 +2045,7 @@
         <v>21</v>
       </c>
       <c r="I3" s="17">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J3" s="18">
         <v>96</v>
@@ -2053,7 +2053,7 @@
       <c r="K3" s="19"/>
       <c r="L3" s="20"/>
       <c r="M3" s="21">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N3" s="22">
         <f>IF('[1]PROJECT BACKLOG'!$O24=0,0,VLOOKUP('[1]PROJECT BACKLOG'!$O24,[1]SETUP!$B$35:$C$40,2)+VLOOKUP('[1]PROJECT BACKLOG'!$P24,[1]SETUP!$B$43:$C$48,2)+[1]SETUP!$C$32:$C$32)</f>
@@ -2112,7 +2112,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>17</v>
@@ -2130,7 +2130,7 @@
         <v>21</v>
       </c>
       <c r="I5" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J5" s="23">
         <v>93</v>
@@ -2138,7 +2138,7 @@
       <c r="K5" s="24"/>
       <c r="L5" s="25"/>
       <c r="M5" s="26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N5" s="22">
         <f>IF('[1]PROJECT BACKLOG'!$O19=0,0,VLOOKUP('[1]PROJECT BACKLOG'!$O19,[1]SETUP!$B$35:$C$40,2)+VLOOKUP('[1]PROJECT BACKLOG'!$P19,[1]SETUP!$B$43:$C$48,2)+[1]SETUP!$C$32:$C$32)</f>
@@ -2156,7 +2156,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>17</v>
@@ -2174,7 +2174,7 @@
         <v>21</v>
       </c>
       <c r="I6" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J6" s="23">
         <v>93</v>
@@ -2200,7 +2200,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>17</v>
@@ -2218,7 +2218,7 @@
         <v>21</v>
       </c>
       <c r="I7" s="17">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="J7" s="23">
         <v>80</v>
@@ -2226,7 +2226,7 @@
       <c r="K7" s="24"/>
       <c r="L7" s="25"/>
       <c r="M7" s="26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N7" s="22">
         <f>IF('[1]PROJECT BACKLOG'!$O12=0,0,VLOOKUP('[1]PROJECT BACKLOG'!$O12,[1]SETUP!$B$35:$C$40,2)+VLOOKUP('[1]PROJECT BACKLOG'!$P12,[1]SETUP!$B$43:$C$48,2)+[1]SETUP!$C$32:$C$32)</f>
@@ -2244,7 +2244,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>17</v>
@@ -2288,7 +2288,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>17</v>
@@ -2332,7 +2332,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>17</v>
@@ -2350,15 +2350,15 @@
         <v>21</v>
       </c>
       <c r="I10" s="17">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="J10" s="18">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="K10" s="19"/>
       <c r="L10" s="20"/>
       <c r="M10" s="21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N10" s="22">
         <f>IF('[1]PROJECT BACKLOG'!$O11=0,0,VLOOKUP('[1]PROJECT BACKLOG'!$O11,[1]SETUP!$B$35:$C$40,2)+VLOOKUP('[1]PROJECT BACKLOG'!$P11,[1]SETUP!$B$43:$C$48,2)+[1]SETUP!$C$32:$C$32)</f>
@@ -2376,7 +2376,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>17</v>
@@ -2469,7 +2469,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{66befdff-81a9-45a1-9c61-e67be5356aa0}</x14:id>
+          <x14:id>{4ca9f968-49b0-4a1e-afd3-fb18b75378d3}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2483,7 +2483,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2a6f1921-1a15-4350-86c6-59c2bb3a42d9}</x14:id>
+          <x14:id>{857e64b6-a7a1-4965-9338-ef360f11abbd}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2497,7 +2497,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6d61468a-f840-48a7-a336-16215045ea99}</x14:id>
+          <x14:id>{0de3eff5-32e9-4ebe-ba86-bd57458f8178}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2522,7 +2522,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{66befdff-81a9-45a1-9c61-e67be5356aa0}">
+          <x14:cfRule type="dataBar" id="{4ca9f968-49b0-4a1e-afd3-fb18b75378d3}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -2536,7 +2536,7 @@
           <xm:sqref>L2:L11</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2a6f1921-1a15-4350-86c6-59c2bb3a42d9}">
+          <x14:cfRule type="dataBar" id="{857e64b6-a7a1-4965-9338-ef360f11abbd}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="num">
                 <xm:f>1</xm:f>
@@ -2550,7 +2550,7 @@
           <xm:sqref>O2:O11</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6d61468a-f840-48a7-a336-16215045ea99}">
+          <x14:cfRule type="dataBar" id="{0de3eff5-32e9-4ebe-ba86-bd57458f8178}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="num">
                 <xm:f>1</xm:f>
